--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H2">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I2">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J2">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>72.96270303596445</v>
+        <v>71.870251908543</v>
       </c>
       <c r="R2">
-        <v>656.6643273236801</v>
+        <v>646.8322671768869</v>
       </c>
       <c r="S2">
-        <v>0.02709377469317142</v>
+        <v>0.03984490704460533</v>
       </c>
       <c r="T2">
-        <v>0.02709377469317142</v>
+        <v>0.03984490704460535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H3">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I3">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J3">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>125.1472964999987</v>
+        <v>98.17321346088301</v>
       </c>
       <c r="R3">
-        <v>1126.325668499988</v>
+        <v>883.558921147947</v>
       </c>
       <c r="S3">
-        <v>0.04647186183822095</v>
+        <v>0.05442728334383516</v>
       </c>
       <c r="T3">
-        <v>0.04647186183822095</v>
+        <v>0.05442728334383519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H4">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I4">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J4">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.9239827037244446</v>
+        <v>3.631397639733</v>
       </c>
       <c r="R4">
-        <v>8.315844333520001</v>
+        <v>32.682578757597</v>
       </c>
       <c r="S4">
-        <v>0.0003431092620397811</v>
+        <v>0.002013248841555283</v>
       </c>
       <c r="T4">
-        <v>0.0003431092620397811</v>
+        <v>0.002013248841555284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H5">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I5">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J5">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>570.9835952775895</v>
+        <v>545.3648011199761</v>
       </c>
       <c r="R5">
-        <v>5138.852357498306</v>
+        <v>4908.283210079783</v>
       </c>
       <c r="S5">
-        <v>0.2120275187217575</v>
+        <v>0.3023505446130506</v>
       </c>
       <c r="T5">
-        <v>0.2120275187217575</v>
+        <v>0.3023505446130507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H6">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I6">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J6">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>2.000186517868</v>
+        <v>2.464663123638</v>
       </c>
       <c r="R6">
-        <v>18.001678660812</v>
+        <v>22.181968112742</v>
       </c>
       <c r="S6">
-        <v>0.0007427439034532797</v>
+        <v>0.001366410586435547</v>
       </c>
       <c r="T6">
-        <v>0.0007427439034532797</v>
+        <v>0.001366410586435547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>56.14352085056</v>
+        <v>70.497929496016</v>
       </c>
       <c r="R7">
-        <v>505.29168765504</v>
+        <v>634.481365464144</v>
       </c>
       <c r="S7">
-        <v>0.02084818463560281</v>
+        <v>0.03908409074703691</v>
       </c>
       <c r="T7">
-        <v>0.02084818463560281</v>
+        <v>0.03908409074703693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>96.29865065409601</v>
@@ -948,10 +948,10 @@
         <v>866.687855886864</v>
       </c>
       <c r="S8">
-        <v>0.03575928296944315</v>
+        <v>0.05338802469645001</v>
       </c>
       <c r="T8">
-        <v>0.03575928296944315</v>
+        <v>0.05338802469645004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.71098849184</v>
+        <v>3.562058125296</v>
       </c>
       <c r="R9">
-        <v>6.398896426559999</v>
+        <v>32.058523127664</v>
       </c>
       <c r="S9">
-        <v>0.0002640165619666735</v>
+        <v>0.001974806976751802</v>
       </c>
       <c r="T9">
-        <v>0.0002640165619666735</v>
+        <v>0.001974806976751803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>439.3618664455681</v>
+        <v>534.951364131712</v>
       </c>
       <c r="R10">
-        <v>3954.256798010113</v>
+        <v>4814.562277185408</v>
       </c>
       <c r="S10">
-        <v>0.1631514585250472</v>
+        <v>0.2965773294399602</v>
       </c>
       <c r="T10">
-        <v>0.1631514585250472</v>
+        <v>0.2965773294399602</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>1.539108459504</v>
+        <v>2.417601754656</v>
       </c>
       <c r="R11">
-        <v>13.851976135536</v>
+        <v>21.758415791904</v>
       </c>
       <c r="S11">
-        <v>0.0005715284123944917</v>
+        <v>0.001340319737681241</v>
       </c>
       <c r="T11">
-        <v>0.0005715284123944917</v>
+        <v>0.001340319737681242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H12">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I12">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J12">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>77.78647685611111</v>
+        <v>6.142944679649555</v>
       </c>
       <c r="R12">
-        <v>700.078291705</v>
+        <v>55.286502116846</v>
       </c>
       <c r="S12">
-        <v>0.02888502194163823</v>
+        <v>0.003405651896869098</v>
       </c>
       <c r="T12">
-        <v>0.02888502194163823</v>
+        <v>0.003405651896869099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H13">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I13">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J13">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>133.4211436492917</v>
+        <v>8.391129894480667</v>
       </c>
       <c r="R13">
-        <v>1200.790292843625</v>
+        <v>75.520169050326</v>
       </c>
       <c r="S13">
-        <v>0.04954425007469001</v>
+        <v>0.004652047012027359</v>
       </c>
       <c r="T13">
-        <v>0.04954425007469002</v>
+        <v>0.004652047012027361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H14">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I14">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J14">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.985069853611111</v>
+        <v>0.310385371114</v>
       </c>
       <c r="R14">
-        <v>8.865628682499999</v>
+        <v>2.793468340026</v>
       </c>
       <c r="S14">
-        <v>0.0003657932006386775</v>
+        <v>0.0001720778198437426</v>
       </c>
       <c r="T14">
-        <v>0.0003657932006386776</v>
+        <v>0.0001720778198437426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H15">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I15">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J15">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>608.7329604193334</v>
+        <v>46.61380354936356</v>
       </c>
       <c r="R15">
-        <v>5478.596643774001</v>
+        <v>419.524231944272</v>
       </c>
       <c r="S15">
-        <v>0.2260452668506409</v>
+        <v>0.0258427182331764</v>
       </c>
       <c r="T15">
-        <v>0.2260452668506409</v>
+        <v>0.0258427182331764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H16">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I16">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J16">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>2.132424592375</v>
+        <v>0.210661418604</v>
       </c>
       <c r="R16">
-        <v>19.191821331375</v>
+        <v>1.895952767436</v>
       </c>
       <c r="S16">
-        <v>0.0007918488358018718</v>
+        <v>0.0001167908059212372</v>
       </c>
       <c r="T16">
-        <v>0.0007918488358018719</v>
+        <v>0.0001167908059212372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H17">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>21.29041155268445</v>
+        <v>22.06821371553211</v>
       </c>
       <c r="R17">
-        <v>191.61370397416</v>
+        <v>198.613923439789</v>
       </c>
       <c r="S17">
-        <v>0.007905924393302618</v>
+        <v>0.0122346297777668</v>
       </c>
       <c r="T17">
-        <v>0.007905924393302618</v>
+        <v>0.0122346297777668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H18">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>36.51780068890067</v>
+        <v>30.14470379973433</v>
       </c>
       <c r="R18">
-        <v>328.6602062001061</v>
+        <v>271.302334197609</v>
       </c>
       <c r="S18">
-        <v>0.01356042228407467</v>
+        <v>0.01671224030654612</v>
       </c>
       <c r="T18">
-        <v>0.01356042228407467</v>
+        <v>0.01671224030654613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H19">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.2696168208044445</v>
+        <v>1.115043527351</v>
       </c>
       <c r="R19">
-        <v>2.42655138724</v>
+        <v>10.035391746159</v>
       </c>
       <c r="S19">
-        <v>0.000100118787989037</v>
+        <v>0.0006181807426322422</v>
       </c>
       <c r="T19">
-        <v>0.000100118787989037</v>
+        <v>0.0006181807426322423</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H20">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>166.6121898924054</v>
+        <v>167.4576986227831</v>
       </c>
       <c r="R20">
-        <v>1499.509709031648</v>
+        <v>1507.119287605048</v>
       </c>
       <c r="S20">
-        <v>0.06186932427456295</v>
+        <v>0.09283863988704355</v>
       </c>
       <c r="T20">
-        <v>0.06186932427456295</v>
+        <v>0.09283863988704356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H21">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.5836515421660001</v>
+        <v>0.7567903423860001</v>
       </c>
       <c r="R21">
-        <v>5.252863879494001</v>
+        <v>6.811113081474001</v>
       </c>
       <c r="S21">
-        <v>0.0002167316001844533</v>
+        <v>0.0004195649805568703</v>
       </c>
       <c r="T21">
-        <v>0.0002167316001844533</v>
+        <v>0.0004195649805568704</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H22">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N22">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q22">
-        <v>26.32698747946222</v>
+        <v>9.095214426492332</v>
       </c>
       <c r="R22">
-        <v>236.94288731516</v>
+        <v>81.856929838431</v>
       </c>
       <c r="S22">
-        <v>0.009776193005992374</v>
+        <v>0.005042391862428734</v>
       </c>
       <c r="T22">
-        <v>0.009776193005992376</v>
+        <v>0.005042391862428735</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H23">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.988727</v>
       </c>
       <c r="O23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q23">
-        <v>45.15665087709232</v>
+        <v>12.423866671579</v>
       </c>
       <c r="R23">
-        <v>406.409857893831</v>
+        <v>111.814800044211</v>
       </c>
       <c r="S23">
-        <v>0.01676834977123965</v>
+        <v>0.006887798491280827</v>
       </c>
       <c r="T23">
-        <v>0.01676834977123965</v>
+        <v>0.00688779849128083</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H24">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N24">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q24">
-        <v>0.3333988470822222</v>
+        <v>0.4595550916289999</v>
       </c>
       <c r="R24">
-        <v>3.000589623739999</v>
+        <v>4.135995824660999</v>
       </c>
       <c r="S24">
-        <v>0.0001238034347679843</v>
+        <v>0.0002547775946456092</v>
       </c>
       <c r="T24">
-        <v>0.0001238034347679844</v>
+        <v>0.0002547775946456092</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H25">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N25">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q25">
-        <v>206.0268786429387</v>
+        <v>69.01617394022134</v>
       </c>
       <c r="R25">
-        <v>1854.241907786448</v>
+        <v>621.1455654619919</v>
       </c>
       <c r="S25">
-        <v>0.07650546921127185</v>
+        <v>0.0382626046548691</v>
       </c>
       <c r="T25">
-        <v>0.07650546921127187</v>
+        <v>0.0382626046548691</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H26">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N26">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q26">
-        <v>0.7217233356409999</v>
+        <v>0.311904285894</v>
       </c>
       <c r="R26">
-        <v>6.495510020768999</v>
+        <v>2.807138573046</v>
       </c>
       <c r="S26">
-        <v>0.0002680028101072792</v>
+        <v>0.000172919907030174</v>
       </c>
       <c r="T26">
-        <v>0.0002680028101072793</v>
+        <v>0.000172919907030174</v>
       </c>
     </row>
   </sheetData>
